--- a/manuscript_beadqc/intensities.xlsx
+++ b/manuscript_beadqc/intensities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/florian_derop_kuleuven_be/Documents/phd/pub/submission/plosbiol/20210825_final_images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GBW_MyDownloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{961BDC16-ABC5-461E-9E3D-24E087F694CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7974D291-5E22-4D3A-8F90-782AEB1FB9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9CBAB08F-08CD-4E3E-B11A-FEFF2A945CD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{9CBAB08F-08CD-4E3E-B11A-FEFF2A945CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="beadqc" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
   <si>
     <t>filename</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>iso_prebc_AcryD2-cropped.png</t>
+  </si>
+  <si>
+    <t>absstd</t>
+  </si>
+  <si>
+    <t>dmean (μm) ± 1σ</t>
+  </si>
+  <si>
+    <t>imean ± 1σ</t>
+  </si>
+  <si>
+    <t>Results in the following table (figure 1 supplement 2):</t>
   </si>
 </sst>
 </file>
@@ -804,28 +816,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD465FDD-A3CC-4881-A86E-012D2B60BD76}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -845,34 +857,40 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>55</v>
       </c>
@@ -892,34 +910,42 @@
         <v>3.6</v>
       </c>
       <c r="G3">
+        <f>ROUND(E3*F3/100,2)</f>
+        <v>2.21</v>
+      </c>
+      <c r="H3">
         <v>82.42</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>17.350000000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <f>ROUND(H3*I3/100,2)</f>
+        <v>14.3</v>
+      </c>
+      <c r="K3">
         <v>67.14</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>6.24</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>60.9</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>76.180000000000007</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>1142</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>856</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>55</v>
       </c>
@@ -939,34 +965,42 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G5" si="0">ROUND(E4*F4/100,2)</f>
+        <v>2.84</v>
+      </c>
+      <c r="H4">
         <v>18.52</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>31.59</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="1">ROUND(H4*I4/100,2)</f>
+        <v>5.85</v>
+      </c>
+      <c r="K4">
         <v>15.69</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>13.68</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>16.510000000000002</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1142</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>856</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>55</v>
       </c>
@@ -986,39 +1020,47 @@
         <v>2.92</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="H5">
         <v>108.97</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.01</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5">
         <v>89.7</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>6.94</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>82.76</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>102.03</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1142</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>856</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1038,34 +1080,40 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>30</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>55</v>
       </c>
@@ -1085,34 +1133,42 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="G9">
+        <f>ROUND(E9*F9/100,2)</f>
+        <v>2.59</v>
+      </c>
+      <c r="H9">
         <v>86.37</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7.69</v>
       </c>
-      <c r="I9">
+      <c r="J9">
+        <f>ROUND(H9*I9/100,2)</f>
+        <v>6.64</v>
+      </c>
+      <c r="K9">
         <v>78.13</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>34.07</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>44.06</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>52.3</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>1388</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>1040</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>55</v>
       </c>
@@ -1132,34 +1188,42 @@
         <v>3.8</v>
       </c>
       <c r="G10">
+        <f>ROUND(E10*F10/100,2)</f>
+        <v>2.4</v>
+      </c>
+      <c r="H10">
         <v>91.18</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.38</v>
       </c>
-      <c r="I10">
+      <c r="J10">
+        <f t="shared" ref="J10:J11" si="2">ROUND(H10*I10/100,2)</f>
+        <v>4.91</v>
+      </c>
+      <c r="K10">
         <v>82.71</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>30.76</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>51.95</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>60.42</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>1388</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>1040</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>55</v>
       </c>
@@ -1179,39 +1243,47 @@
         <v>4.21</v>
       </c>
       <c r="G11">
+        <f t="shared" ref="G11" si="3">ROUND(E11*F11/100,2)</f>
+        <v>2.73</v>
+      </c>
+      <c r="H11">
         <v>83.6</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>8.0299999999999994</v>
       </c>
-      <c r="I11">
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>6.71</v>
+      </c>
+      <c r="K11">
         <v>76.739999999999995</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>31.65</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>45.09</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>51.95</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>1388</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>1040</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1231,34 +1303,40 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>10</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>11</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>12</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>29</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>30</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>35</v>
       </c>
@@ -1278,34 +1356,42 @@
         <v>2.83</v>
       </c>
       <c r="G15">
+        <f>ROUND(E15*F15/100,2)</f>
+        <v>1.3</v>
+      </c>
+      <c r="H15">
         <v>72.48</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>7.31</v>
       </c>
-      <c r="I15">
+      <c r="J15">
+        <f>ROUND(H15*I15/100,2)</f>
+        <v>5.3</v>
+      </c>
+      <c r="K15">
         <v>66.88</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>27.66</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>39.22</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>44.82</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>1388</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>1040</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>35</v>
       </c>
@@ -1325,34 +1411,47 @@
         <v>2.37</v>
       </c>
       <c r="G16">
+        <f t="shared" ref="G16" si="4">ROUND(E16*F16/100,2)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H16">
         <v>62.08</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>9.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
+        <f t="shared" ref="J16:J17" si="5">ROUND(H16*I16/100,2)</f>
+        <v>5.9</v>
+      </c>
+      <c r="K16">
         <v>57.87</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>25.75</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>32.119999999999997</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>36.33</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>1388</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>1040</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
@@ -1377,8 +1476,14 @@
       <c r="H20" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>66</v>
       </c>
@@ -1403,8 +1508,16 @@
       <c r="H21" s="10">
         <v>102.03</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f>G21 &amp; " ± " &amp; G5</f>
+        <v>57.63 ± 1.68</v>
+      </c>
+      <c r="K21" t="str">
+        <f>H21 &amp; " ± " &amp; J5</f>
+        <v>102.03 ± 1.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
@@ -1423,8 +1536,16 @@
       <c r="H22" s="10">
         <v>76.180000000000007</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f>G22 &amp; " ± " &amp; G3</f>
+        <v>61.44 ± 2.21</v>
+      </c>
+      <c r="K22" t="str">
+        <f>H22 &amp; " ± " &amp; J3</f>
+        <v>76.18 ± 14.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="18"/>
       <c r="C23" s="20"/>
@@ -1443,8 +1564,16 @@
       <c r="H23" s="10">
         <v>16.510000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f>G23 &amp; " ± " &amp; G4</f>
+        <v>59.6 ± 2.84</v>
+      </c>
+      <c r="K23" t="str">
+        <f>H23 &amp; " ± " &amp; J4</f>
+        <v>16.51 ± 5.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>65</v>
       </c>
@@ -1469,8 +1598,16 @@
       <c r="H24" s="6">
         <v>60.42</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f>G24 &amp; " ± " &amp; G10</f>
+        <v>63.16 ± 2.4</v>
+      </c>
+      <c r="K24" t="str">
+        <f>H24 &amp; " ± " &amp; J10</f>
+        <v>60.42 ± 4.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="18"/>
       <c r="C25" s="20"/>
@@ -1489,8 +1626,16 @@
       <c r="H25" s="6">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f>G25 &amp; " ± " &amp; G9</f>
+        <v>62.53 ± 2.59</v>
+      </c>
+      <c r="K25" t="str">
+        <f>H25 &amp; " ± " &amp; J9</f>
+        <v>52.3 ± 6.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="18"/>
       <c r="C26" s="20"/>
@@ -1509,8 +1654,16 @@
       <c r="H26" s="6">
         <v>51.95</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f>G26 &amp; " ± " &amp; G11</f>
+        <v>64.87 ± 2.73</v>
+      </c>
+      <c r="K26" t="str">
+        <f>H26 &amp; " ± " &amp; J11</f>
+        <v>51.95 ± 6.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="18"/>
       <c r="C27" s="20" t="s">
@@ -1531,8 +1684,16 @@
       <c r="H27" s="6">
         <v>44.82</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f>G27 &amp; " ± " &amp; G15</f>
+        <v>45.91 ± 1.3</v>
+      </c>
+      <c r="K27" t="str">
+        <f>H27 &amp; " ± " &amp; J15</f>
+        <v>44.82 ± 5.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="18"/>
       <c r="C28" s="20"/>
@@ -1551,22 +1712,30 @@
       <c r="H28" s="6">
         <v>36.33</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f>G28 &amp; " ± " &amp; G16</f>
+        <v>45.96 ± 1.09</v>
+      </c>
+      <c r="K28" t="str">
+        <f>H28 &amp; " ± " &amp; J16</f>
+        <v>36.33 ± 5.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1577,7 +1746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1388</v>
       </c>
@@ -1589,7 +1758,7 @@
         <v>1.3346153846153845</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6.45</v>
       </c>
@@ -1597,12 +1766,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1613,7 +1782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1304</v>
       </c>
@@ -1626,7 +1795,7 @@
         <v>1.5233644859813085</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>A34/(A38/A33)</f>
         <v>6.8654907975460118</v>
@@ -1635,12 +1804,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1651,14 +1820,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>86.254000000000005</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -1668,7 +1837,7 @@
         <v>15.118139448605282</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>A39*C45</f>
         <v>103.7934472604169</v>
@@ -1677,7 +1846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>10</v>
       </c>
@@ -1686,7 +1855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>A46/A47</f>
         <v>10.37934472604169</v>
@@ -1695,12 +1864,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>100/A48</f>
         <v>9.6345195809038717</v>
@@ -1709,18 +1878,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>A51*10</f>
         <v>96.345195809038714</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1731,7 +1900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C57">
         <f>C56/A48</f>
         <v>24.086298952259678</v>
@@ -1763,13 +1932,13 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>68</v>
       </c>
@@ -1783,7 +1952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -1802,7 +1971,7 @@
         <v>81.428571428571431</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -1821,7 +1990,7 @@
         <v>60.714285714285715</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -1840,7 +2009,7 @@
         <v>133.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
@@ -1861,17 +2030,17 @@
         <v>87.578947368421055</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +2087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +2099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1942,7 +2111,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1954,7 +2123,7 @@
         <v>1.2280701754385965E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1966,7 +2135,7 @@
         <v>81.428571428571431</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1974,7 +2143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1982,12 +2151,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2046,7 +2215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2058,7 +2227,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +2239,7 @@
         <v>1.6470588235294119E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2082,7 +2251,7 @@
         <v>60.714285714285715</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2090,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2098,12 +2267,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2162,7 +2331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2174,7 +2343,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2355,7 @@
         <v>7.4962518740629685E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2198,7 +2367,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2206,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2214,7 +2383,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O34" t="s">
         <v>46</v>
       </c>
@@ -2223,19 +2392,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P35">
         <f>P11+P20+P29</f>
         <v>1662</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P36">
         <f>P34/P35</f>
         <v>1.1432009626955475E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P37">
         <f>P35/P34</f>
         <v>87.473684210526315</v>
@@ -2249,21 +2418,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79990894-6CF7-4D58-960D-E370DE4030ED}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2283,34 +2452,40 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>45</v>
       </c>
@@ -2330,34 +2505,42 @@
         <v>3.54</v>
       </c>
       <c r="G2">
+        <f>ROUND(E2*F2/100,2)</f>
+        <v>1.69</v>
+      </c>
+      <c r="H2">
         <v>124.78</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.11</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <f>ROUND(H2*I2/100,2)</f>
+        <v>2.63</v>
+      </c>
+      <c r="K2">
         <v>116.06</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>42.58</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>73.48</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>82.2</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>2080</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1540</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>45</v>
       </c>
@@ -2377,34 +2560,42 @@
         <v>3.07</v>
       </c>
       <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">ROUND(E3*F3/100,2)</f>
+        <v>1.48</v>
+      </c>
+      <c r="H3">
         <v>122.76</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.89</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="1">ROUND(H3*I3/100,2)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K3">
         <v>114.71</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>40.78</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>73.930000000000007</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>81.98</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>2080</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>1540</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45</v>
       </c>
@@ -2424,34 +2615,42 @@
         <v>3.89</v>
       </c>
       <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.81</v>
+      </c>
+      <c r="H4">
         <v>122.53</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.63</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>3.22</v>
+      </c>
+      <c r="K4">
         <v>112.39</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>42.29</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>70.099999999999994</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>80.239999999999995</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>2080</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>1540</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
@@ -2464,8 +2663,14 @@
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>78</v>
       </c>
@@ -2478,9 +2683,17 @@
       <c r="D7" s="10">
         <v>82.2</v>
       </c>
+      <c r="F7" t="str">
+        <f>C7 &amp; " ± " &amp; G2</f>
+        <v>47.77 ± 1.69</v>
+      </c>
+      <c r="G7" t="str">
+        <f>D7 &amp; " ± " &amp; J2</f>
+        <v>82.2 ± 2.63</v>
+      </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>79</v>
       </c>
@@ -2493,8 +2706,16 @@
       <c r="D8" s="10">
         <v>81.98</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:F9" si="2">C8 &amp; " ± " &amp; G3</f>
+        <v>48.14 ± 1.48</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ref="G8:G9" si="3">D8 &amp; " ± " &amp; J3</f>
+        <v>81.98 ± 2.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>80</v>
       </c>
@@ -2507,24 +2728,32 @@
       <c r="D9" s="10">
         <v>80.239999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>46.57 ± 1.81</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>80.24 ± 3.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2535,7 +2764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2080</v>
       </c>
@@ -2547,7 +2776,7 @@
         <v>1.3506493506493507</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.6500000000000004</v>
       </c>
@@ -2555,12 +2784,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2571,7 +2800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2080</v>
       </c>
@@ -2584,7 +2813,7 @@
         <v>1.3506493506493507</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>A15/(A19/A14)</f>
         <v>4.6500000000000004</v>
@@ -2593,12 +2822,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2609,7 +2842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>56.841000000000001</v>
       </c>
@@ -2618,7 +2851,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -2628,7 +2861,7 @@
         <v>36.593304129061771</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>A20*C26</f>
         <v>170.15886420013726</v>
@@ -2637,7 +2870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>10</v>
       </c>
@@ -2646,7 +2879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>A27/A28</f>
         <v>17.015886420013725</v>
@@ -2655,12 +2888,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>100/A29</f>
         <v>5.8768610421836218</v>
@@ -2669,18 +2902,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>A32*10</f>
         <v>58.768610421836215</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -2691,7 +2924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>C37/A29</f>
         <v>14.692152605459055</v>
@@ -2707,6 +2940,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100371174F9DAA68943A4F64D1C7FA5190F" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edfa40b9afbf671dbce87db989f6acef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cd9202a6-e211-4275-8e27-b09f1131300c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23b246a04e3c16a8a60f646981429043" ns3:_="">
     <xsd:import namespace="cd9202a6-e211-4275-8e27-b09f1131300c"/>
@@ -2890,22 +3138,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D68C8BB4-386C-46CA-B284-6FD6C96333A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F5DEBA3-AF58-41A1-8D11-BB534DFFC2B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19C06A23-DE65-4C8B-8E68-E7A2B709D29E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2921,28 +3178,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F5DEBA3-AF58-41A1-8D11-BB534DFFC2B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D68C8BB4-386C-46CA-B284-6FD6C96333A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>